--- a/src/main/resources/主播上传模板.xlsx
+++ b/src/main/resources/主播上传模板.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>序号</t>
   </si>
@@ -90,7 +90,7 @@
     <t>https://www.iesdouyin.com/share/user/2287414925600951?iid=MS4wLjABAAAAPtTdQnqqgWsKhnO5NuAGntuGDYrqS-IeVl4Y0iOnSLMayaGBJwhRlDYJQPpqRu56&amp;with_sec_did=1&amp;u_code=18embm8cm&amp;sec_uid=MS4wLjABAAAABi41JuTYAdCRT9R9oBIeWFykIAO0cteV7ZjJKmeLmpf4Rm0RX4P8CneAfqYQ4K0d&amp;did=MS4wLjABAAAAWNZ1ji_7iCUsSOCS25T--FFno0COMw7zaDtm2Hs4fu0&amp;timestamp=1624442841&amp;utm_source=copy&amp;utm_campaign=client_share&amp;utm_medium=android&amp;share_app_name=douyin</t>
   </si>
   <si>
-    <t>智能家居:96</t>
+    <t>智能家居=96;家用电器=120;男装女装=23</t>
   </si>
   <si>
     <t>居家好物 分享达人 商务+（weige199077）</t>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>https://www.iesdouyin.com/share/user/4344875403989856?sec_uid=MS4wLjABAAAArcx_Tt9XHWi7sBz6_zC_ug47_gfFANhHU91VQBuzjPL7sfgJhtm4Rr-Zv-31uy2F&amp;did=MS4wLjABAAAAWNZ1ji_7iCUsSOCS25T--FFno0COMw7zaDtm2Hs4fu0&amp;iid=MS4wLjABAAAAPtTdQnqqgWsKhnO5NuAGntuGDYrqS-IeVl4Y0iOnSLMayaGBJwhRlDYJQPpqRu56&amp;with_sec_did=1&amp;u_code=18embm8cm&amp;timestamp=1624453293&amp;utm_source=copy&amp;utm_campaign=client_share&amp;utm_medium=android&amp;share_app_name=douyin</t>
-  </si>
-  <si>
-    <t>智能家居:100</t>
   </si>
   <si>
     <t>喜欢简单的你，喜欢单纯的你感谢关注我哦客服：tui9276</t>
@@ -132,9 +129,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -161,9 +158,86 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -175,22 +249,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -200,21 +267,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -222,67 +274,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -306,61 +303,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,121 +483,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,6 +494,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -511,15 +523,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,17 +542,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,15 +556,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,6 +585,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -605,10 +602,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -617,133 +614,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1108,7 +1105,7 @@
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3"/>
@@ -1263,7 +1260,7 @@
         <v>32</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="J3" s="2">
         <v>97</v>
@@ -1272,7 +1269,7 @@
         <v>3736</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M3" s="2">
         <v>64</v>
@@ -1293,7 +1290,7 @@
         <v>27</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T3" s="2">
         <v>4.23</v>
